--- a/rmonize/data_dictionary/DD_EPICP_P1.xlsx
+++ b/rmonize/data_dictionary/DD_EPICP_P1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\NFDI4Health\TA5\Pilotprojekte\Pilotprojekt UC5.1\Study-specific DDs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{517E9804-B27F-4640-9879-16CEC576147D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13071805-7099-4C33-9574-B5F8BA276141}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" firstSheet="1" activeTab="1" xr2:uid="{1200B70D-B446-4CDA-99A8-3FD394D791D2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{1200B70D-B446-4CDA-99A8-3FD394D791D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -21,23 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="37">
   <si>
     <t>index</t>
   </si>
@@ -145,13 +134,16 @@
   </si>
   <si>
     <t>Miscellaneous</t>
+  </si>
+  <si>
+    <t>TESTING</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,7 +262,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -572,14 +564,14 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.140625" style="4" customWidth="1"/>
     <col min="3" max="3" width="54.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -593,7 +585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -607,7 +599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -621,7 +613,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -635,7 +627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -649,7 +641,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -663,103 +655,103 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="8"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" s="10"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="8"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
       <c r="C12" s="10"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="9"/>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
     </row>
-    <row r="33" spans="2:4">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
     </row>
-    <row r="34" spans="2:4">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
       <c r="C34" s="12"/>
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="2:4">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="6"/>
     </row>
-    <row r="43" spans="2:4">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" s="8"/>
     </row>
-    <row r="78" spans="2:2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="5"/>
     </row>
-    <row r="79" spans="2:2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="5"/>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="8"/>
     </row>
-    <row r="82" spans="2:3">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C82" s="6"/>
     </row>
-    <row r="83" spans="2:3">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="8"/>
     </row>
   </sheetData>
@@ -776,12 +768,12 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -796,7 +788,7 @@
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -807,7 +799,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -818,7 +810,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -829,7 +821,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
@@ -840,7 +832,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -851,7 +843,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
@@ -862,7 +854,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
@@ -873,7 +865,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
@@ -884,7 +876,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
@@ -895,7 +887,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>7</v>
       </c>
@@ -906,7 +898,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>7</v>
       </c>
@@ -917,7 +909,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>7</v>
       </c>
@@ -928,7 +920,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
@@ -939,7 +931,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>7</v>
       </c>
@@ -950,7 +942,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>7</v>
       </c>
@@ -961,7 +953,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>7</v>
       </c>
@@ -972,7 +964,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>7</v>
       </c>
@@ -983,15 +975,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>10</v>
       </c>
@@ -999,7 +994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>10</v>
       </c>
@@ -1007,7 +1002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>10</v>
       </c>
@@ -1015,7 +1010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>10</v>
       </c>
@@ -1023,7 +1018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>10</v>
       </c>
@@ -1031,7 +1026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>10</v>
       </c>
@@ -1039,7 +1034,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>10</v>
       </c>
@@ -1047,7 +1042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>10</v>
       </c>
@@ -1055,7 +1050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>10</v>
       </c>
@@ -1063,7 +1058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>12</v>
       </c>
@@ -1071,7 +1066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>12</v>
       </c>
@@ -1079,7 +1074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>12</v>
       </c>
@@ -1087,7 +1082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>12</v>
       </c>
@@ -1095,7 +1090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>12</v>
       </c>
@@ -1103,7 +1098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>12</v>
       </c>
@@ -1111,882 +1106,882 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="13"/>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" s="13"/>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="13"/>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="13"/>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="13"/>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="13"/>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="13"/>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="13"/>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="13"/>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="13"/>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="13"/>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="13"/>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="13"/>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="13"/>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="13"/>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="13"/>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="13"/>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="13"/>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="13"/>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="13"/>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="13"/>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="13"/>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="13"/>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="9"/>
       <c r="B58" s="13"/>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
       <c r="B59" s="13"/>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="9"/>
       <c r="B60" s="13"/>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="9"/>
       <c r="B61" s="13"/>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="9"/>
       <c r="B62" s="13"/>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="9"/>
       <c r="B63" s="13"/>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="9"/>
       <c r="B64" s="13"/>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="9"/>
       <c r="B65" s="13"/>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="13"/>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="13"/>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="13"/>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="13"/>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="13"/>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="13"/>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="13"/>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="13"/>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="9"/>
       <c r="B74" s="13"/>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="9"/>
       <c r="B75" s="13"/>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="9"/>
       <c r="B76" s="13"/>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="9"/>
       <c r="B77" s="13"/>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="9"/>
       <c r="B78" s="13"/>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="9"/>
       <c r="B79" s="13"/>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="9"/>
       <c r="B80" s="13"/>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="9"/>
       <c r="B81" s="13"/>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="9"/>
       <c r="B82" s="13"/>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="9"/>
       <c r="B83" s="13"/>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="9"/>
       <c r="B84" s="13"/>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="9"/>
       <c r="B85" s="13"/>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="9"/>
       <c r="B86" s="13"/>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="9"/>
       <c r="B87" s="13"/>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="9"/>
       <c r="B88" s="13"/>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="9"/>
       <c r="B89" s="13"/>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="9"/>
       <c r="B90" s="13"/>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="9"/>
       <c r="B91" s="13"/>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="9"/>
       <c r="B92" s="13"/>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="9"/>
       <c r="B93" s="13"/>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="9"/>
       <c r="B94" s="13"/>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="9"/>
       <c r="B95" s="13"/>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="9"/>
       <c r="B96" s="13"/>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="9"/>
       <c r="B97" s="13"/>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
       <c r="B98" s="13"/>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
       <c r="B99" s="13"/>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
       <c r="B100" s="13"/>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
       <c r="B101" s="13"/>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
       <c r="B102" s="13"/>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
       <c r="B103" s="13"/>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="8"/>
       <c r="B104" s="13"/>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="8"/>
       <c r="B105" s="13"/>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="8"/>
       <c r="B106" s="13"/>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
       <c r="B107" s="13"/>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="8"/>
       <c r="B108" s="13"/>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
       <c r="B109" s="13"/>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="8"/>
       <c r="B110" s="13"/>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="13"/>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="B112" s="13"/>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="8"/>
       <c r="B113" s="13"/>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="11"/>
       <c r="B114" s="13"/>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="11"/>
       <c r="B115" s="13"/>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="11"/>
       <c r="B116" s="13"/>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="11"/>
       <c r="B117" s="13"/>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="11"/>
       <c r="B118" s="13"/>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="11"/>
       <c r="B119" s="13"/>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="11"/>
       <c r="B120" s="13"/>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="11"/>
       <c r="B121" s="13"/>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="8"/>
       <c r="B122" s="13"/>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="8"/>
       <c r="B123" s="13"/>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="8"/>
       <c r="B124" s="13"/>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="8"/>
       <c r="B125" s="13"/>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="8"/>
       <c r="B126" s="13"/>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="8"/>
       <c r="B127" s="13"/>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="8"/>
       <c r="B128" s="13"/>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="8"/>
       <c r="B129" s="13"/>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="8"/>
       <c r="B130" s="13"/>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="8"/>
       <c r="B131" s="13"/>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="8"/>
       <c r="B132" s="13"/>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="8"/>
       <c r="B133" s="13"/>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="8"/>
       <c r="B134" s="13"/>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="8"/>
       <c r="B135" s="13"/>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="8"/>
       <c r="B136" s="13"/>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="8"/>
       <c r="B137" s="13"/>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="8"/>
       <c r="B138" s="13"/>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="8"/>
       <c r="B139" s="13"/>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="8"/>
       <c r="B140" s="13"/>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="8"/>
       <c r="B141" s="13"/>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="8"/>
       <c r="B142" s="13"/>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="8"/>
       <c r="B143" s="13"/>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="8"/>
       <c r="B144" s="13"/>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="8"/>
       <c r="B145" s="13"/>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="8"/>
       <c r="B146" s="13"/>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="8"/>
       <c r="B147" s="13"/>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="8"/>
       <c r="B148" s="13"/>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="8"/>
       <c r="B149" s="13"/>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="8"/>
       <c r="B150" s="13"/>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="8"/>
       <c r="B151" s="13"/>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="8"/>
       <c r="B152" s="13"/>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="8"/>
       <c r="B153" s="13"/>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="8"/>
       <c r="B154" s="13"/>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="8"/>
       <c r="B155" s="13"/>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="8"/>
       <c r="B156" s="13"/>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="8"/>
       <c r="B157" s="13"/>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="8"/>
       <c r="B158" s="13"/>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="8"/>
       <c r="B159" s="13"/>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="8"/>
       <c r="B160" s="13"/>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="8"/>
       <c r="B161" s="13"/>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="8"/>
       <c r="B162" s="13"/>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="8"/>
       <c r="B163" s="13"/>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="8"/>
       <c r="B164" s="13"/>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="8"/>
       <c r="B165" s="13"/>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="8"/>
       <c r="B166" s="13"/>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="8"/>
       <c r="B167" s="13"/>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="8"/>
       <c r="B168" s="13"/>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="8"/>
       <c r="B169" s="13"/>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="4"/>
       <c r="B170" s="13"/>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="4"/>
       <c r="B171" s="13"/>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="4"/>
       <c r="B172" s="13"/>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="4"/>
       <c r="B173" s="13"/>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="4"/>
       <c r="B174" s="13"/>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="4"/>
       <c r="B175" s="13"/>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="4"/>
       <c r="B176" s="13"/>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
       <c r="B177" s="13"/>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
       <c r="B178" s="13"/>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="4"/>
       <c r="B179" s="13"/>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="4"/>
       <c r="B180" s="13"/>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="4"/>
       <c r="B181" s="13"/>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="4"/>
       <c r="B182" s="13"/>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="4"/>
       <c r="B183" s="13"/>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="4"/>
       <c r="B184" s="13"/>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="4"/>
       <c r="B185" s="13"/>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="4"/>
       <c r="B186" s="13"/>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="4"/>
       <c r="B187" s="13"/>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="4"/>
       <c r="B188" s="13"/>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="4"/>
       <c r="B189" s="13"/>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="4"/>
       <c r="B190" s="13"/>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="4"/>
       <c r="B191" s="13"/>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="4"/>
       <c r="B192" s="13"/>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="4"/>
       <c r="B193" s="13"/>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="4"/>
       <c r="B194" s="13"/>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="4"/>
       <c r="B195" s="13"/>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="4"/>
       <c r="B196" s="13"/>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="4"/>
       <c r="B197" s="13"/>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="4"/>
       <c r="B198" s="13"/>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="4"/>
       <c r="B199" s="13"/>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="4"/>
       <c r="B200" s="13"/>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="4"/>
       <c r="B201" s="13"/>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="4"/>
       <c r="B202" s="13"/>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="4"/>
       <c r="B203" s="13"/>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="4"/>
       <c r="B204" s="13"/>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="4"/>
       <c r="B205" s="13"/>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="4"/>
       <c r="B206" s="13"/>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="4"/>
       <c r="B207" s="13"/>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="4"/>
       <c r="B208" s="13"/>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="4"/>
       <c r="B209" s="13"/>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="9"/>
       <c r="B210" s="13"/>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="9"/>
       <c r="B211" s="13"/>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="9"/>
       <c r="B212" s="13"/>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="9"/>
       <c r="B213" s="13"/>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="9"/>
       <c r="B214" s="13"/>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="9"/>
       <c r="B215" s="13"/>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="9"/>
       <c r="B216" s="13"/>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="9"/>
       <c r="B217" s="13"/>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="4"/>
       <c r="B218" s="13"/>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="4"/>
       <c r="B219" s="13"/>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="4"/>
       <c r="B220" s="13"/>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="4"/>
       <c r="B221" s="13"/>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="4"/>
       <c r="B222" s="13"/>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="4"/>
       <c r="B223" s="13"/>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="4"/>
       <c r="B224" s="13"/>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="4"/>
       <c r="B225" s="13"/>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="4"/>
       <c r="B226" s="13"/>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="4"/>
       <c r="B227" s="13"/>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="4"/>
       <c r="B228" s="13"/>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="4"/>
       <c r="B229" s="13"/>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="4"/>
       <c r="B230" s="13"/>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="4"/>
       <c r="B231" s="13"/>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="4"/>
       <c r="B232" s="13"/>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="4"/>
       <c r="B233" s="13"/>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="14"/>
       <c r="B234" s="15"/>
       <c r="C234" s="16"/>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="14"/>
       <c r="B235" s="15"/>
       <c r="C235" s="16"/>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="14"/>
       <c r="B236" s="15"/>
       <c r="C236" s="16"/>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="14"/>
       <c r="B237" s="15"/>
       <c r="C237" s="16"/>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="14"/>
       <c r="B238" s="15"/>
       <c r="C238" s="16"/>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="4"/>
       <c r="B239" s="15"/>
       <c r="C239" s="16"/>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="4"/>
       <c r="B240" s="15"/>
       <c r="C240" s="16"/>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="4"/>
       <c r="B241" s="15"/>
       <c r="C241" s="16"/>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="4"/>
       <c r="B242" s="15"/>
       <c r="C242" s="16"/>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="4"/>
       <c r="B243" s="15"/>
       <c r="C243" s="16"/>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="4"/>
       <c r="B244" s="15"/>
       <c r="C244" s="16"/>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="4"/>
       <c r="B245" s="15"/>
       <c r="C245" s="16"/>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="4"/>
       <c r="B246" s="15"/>
       <c r="C246" s="16"/>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="4"/>
       <c r="B247" s="15"/>
       <c r="C247" s="16"/>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="4"/>
       <c r="B248" s="15"/>
       <c r="C248" s="16"/>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="4"/>
       <c r="B249" s="15"/>
       <c r="C249" s="16"/>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="4"/>
       <c r="B250" s="15"/>
       <c r="C250" s="16"/>
@@ -2010,15 +2005,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -2259,14 +2245,49 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D9CBEFE-8C4C-4054-8E02-CA457E93B4C8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D9CBEFE-8C4C-4054-8E02-CA457E93B4C8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C05FF1B-7508-40EF-8319-E993EA07F007}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F0D7176-14CB-4F63-BBB4-5E9CDAB9112D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F0D7176-14CB-4F63-BBB4-5E9CDAB9112D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C05FF1B-7508-40EF-8319-E993EA07F007}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/rmonize/data_dictionary/DD_EPICP_P1.xlsx
+++ b/rmonize/data_dictionary/DD_EPICP_P1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13071805-7099-4C33-9574-B5F8BA276141}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F061E7-E246-43D6-93F3-63C15214C4EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{1200B70D-B446-4CDA-99A8-3FD394D791D2}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="38">
   <si>
     <t>index</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>TESTING</t>
+  </si>
+  <si>
+    <t>Testing 2</t>
   </si>
 </sst>
 </file>
@@ -765,7 +768,7 @@
   <dimension ref="A1:E250"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,6 +995,9 @@
       </c>
       <c r="B20" s="13">
         <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2005,6 +2011,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -2245,15 +2260,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D9CBEFE-8C4C-4054-8E02-CA457E93B4C8}">
   <ds:schemaRefs>
@@ -2266,6 +2272,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C05FF1B-7508-40EF-8319-E993EA07F007}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F0D7176-14CB-4F63-BBB4-5E9CDAB9112D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2282,12 +2296,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C05FF1B-7508-40EF-8319-E993EA07F007}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/rmonize/data_dictionary/DD_EPICP_P1.xlsx
+++ b/rmonize/data_dictionary/DD_EPICP_P1.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -486,7 +486,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PAL</t>
+          <t>pal</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -555,6 +555,2006 @@
         </is>
       </c>
       <c r="D10" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>POTATOES_TUB_01</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Intake of starchy roots or tubers [g/d]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>POTATOES_0101</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Potato intake [g/d]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>VEGETABLES_02</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Vegetable intake [g/d]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>LEAFYVEG_0201</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Leafy vegetable intake [g/d]</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>FRUITINGVEG_0202</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Fruiting vegetable intake [g/d]</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ROOTVEG_0203</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Root and tuber vegetable intake [g/d]</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>CABBAGE_0204</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Head cabbages and similar intake [g/d]</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>MUSHROOMS_0205</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Mushroom intake [g/d]</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>GRAINPODVEG_0206</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Intake of legumes with pod [g/d]</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ONION_GARLIC_0207</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Bulb vegetables (onions, garlic) intake [g/d]</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>STALKVEG_0208</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Intake of stems/stalks eaten as vegetables [g/d]</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>MIXEDVEG_0209</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Intake of mixed vegetable salad or mixed green salad [g/d]</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>LEGUMES_TOT_03</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Total legumes intake [g/d]</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>LEGUMES_0301</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Intake fresh seeds (without pod) from legumes (beans, peas etc.) [g/d]</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>FRUITS_TOT_04</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Total fruit intake [g/d]</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>FRUITS_0401</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Intake of fresh fruits [g/d]</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>NUTS_SEEDS_0402</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Intake of tree nuts and seeds [g/d]</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>MIXEDFRUITS_0403</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Intake of candied fruit/mixed fruit, canned, jarred mixed fruit and miscellaneous fruits [g/d]</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>DAIRY_05</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Intake of milk and dairy products and milk and milk products (dairy) [g/d]</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>MILK_0501</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Intake of (whole) cow and cattle milk [g/d]</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>MILKBEV_0502</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Intake of buttermilk, traditional buttermilk, flavoured milk, flavoured whey and milk-based drinks (as part-nature) [g/d]</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>YOGURT_0503</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Intake of fermented milk products [g/d]</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>CURD_0504</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Intake of cheese curd, quark and cottage [g/d]</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>CHEESE_0505</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Intake of cheese [g/d]</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DAIRYDESSERT_0506</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Intake of dairy dessert and similar starchy pudding [g/d]</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>CREAM_PROD_0507</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Intake of cream and cream products [g/d]</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>DAIRYCREAM_050701</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Cream intake (as part-nature) [g/d]</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>MILK_FOR_COFFEE_0508</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Intake of condensed milk (sometimes with added sugars) and milk and dairy powders and concentrates [g/d]</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>CEREAL_PROD_06</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Intake of cereals and cereal primary derivatives, cereal grains (and cereal-like grains) [g/d]</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>FLOUR_FLAKES_0601</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Intake of flours and other milled products and starches [g/d]</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>PASTA_RICE_0602</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Intake of pastas and rice [g/d]</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>BREAD_PROD_0603</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Intake of bread and bread products [g/d]</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>BREAD_060301</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Intake of bread [g/d]</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>CRISPBREAD_060302</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Intake of crisp bread and rusk [g/d]</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>BREAKF_CEREALS_0604</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Intake of breakfast cereals [g/d]</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>SALT_BISCUIT_0605</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Intake of crackers and breadsticks [g/d]</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>DOUGH_PASTRY_0606</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Intake of fine bakery products [g/d]</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>MEAT_PROD_07</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Intake of meat and meat products [g/d]</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>RED_MEAT_0701</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Intake of red meat (mammals meat) [g/d]</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>BEEF_070101</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Intake of cow, ox or bull fresh meat [g/d]</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>VEAL_070102</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Intake of calf fresh meat [g/d]</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>PORK_070103</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Intake of pig fresh meat [g/d]</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>MUTTON_LAMB_070104</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Intake of lamb and sheep meat [g/d]</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>POULTRY_0702</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Intake of poultry meat [g/d]</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>OTHERPOULTRY_070200</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Intake of other poultry meat [g/d]</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>CHICKEN_070201</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Intake of chicken meat [g/d]</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>RABBIT_070205</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Intake of rabbit meat [g/d]</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>PROCMEAT_0704</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Intake of processed or preserved meat [g/d]</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>OFFALS_0705</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Intake of animal offal and other slaughtering [g/d]</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>FISH_SHELLFISH_08</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Intake of fish and seafood and products thereof [g/d]</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>FISH_0801</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Intake of fish (meat) [g/d]</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>FISH_PROD_0803</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Intake of processed fish [g/d]</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>EGG_PROD_09</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Intake of eggs and egg products [g/d]</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>EGGS_0901</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Intake of eggs [g/d]</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>FAT_10</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Intake of animal and vegetable fats and oils [g/d]</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>VEGOILS_1001</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Intake of vegetable fats and oils [g/d]</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>BUTTER_1002</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Intake of butter [g/d]</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>MARGARINE_1003</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Intake of margarines and similar [g/d]</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>FRYFAT_1004</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Intake of blended frying oil/fats [g/d]</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>OTHER_ANIMALFAT_1006</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Intake of animal fats (processed fat from animal tissue) [g/d]</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>SUGAR_CONFECT_11</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Intake of sugar and similar, confectionery and water-based sweet desserts [g/d]</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>HONEY_JAM_1101</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Intake of sugars, syrups, honey and table-top sweeteners [g/d]</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>CHOCOLATE_1102</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Intake of chocolate, chocolate products and chocolate coated confectionary [g/d]</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>NONCHOC_SWEETS_1103</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Intake of sweet bars and other formed sweet masses, candies (soft and hard) and other confectionery including breath refreshening microsweets [g/d]</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ICECREAM_1105</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Intake of spoonable desserts and ice creams [g/d]</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>ICECREAM_MILK_110501</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Intake of milk-based ice cream [g/d]</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>CAKES_12</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Intake of cakes and fine bakery products [g/d]</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>VARPASTRY_1201</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Intake of various pastry [g/d]</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>DRYCAKE_1202</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Intake of sponge biscuits and plain cakes [g/d]</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>NONALC_BEV_13</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Intake of non-alcoholic beverages [g/d]</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>FRUITVEG_JUICE_1301</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Intake of fruit and vegetable juices [g/d]</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>SOFTDRINKS_1302</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Intake of soft drinks [g/d]</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>HOTDRINKS_1303</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Intake of hot drinks and similar (coffee, cocoa, tea and herbal infusions) [g/d]</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>COFFEE_130301</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Coffee intake [g/d]</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>TEA_130302</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Tea intake [g/d]</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>HERBALTEA_130303</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Intake of herbal and other non-tea infusions [g/d]</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>COFFEE_IMITATE_130304</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Intake of chicory coffee infusion and coffee imitate beverages [g/d]</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>WATER_1304</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Intake of water and water-based beverages [g/d]</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>ALC_BEV_14</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Alcoholic beverage intake [g/d]</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>WINE_1401</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Intake of wine and wine-like drinks [g/d]</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>FORTWINE_1402</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Intake of fortified/liqueur wine [g/d]</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>BEER_1403</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Intake of beer and beer-like beverage [g/d]</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>SPIRITS_1404</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Intake of unsweetened spirits [g/d]</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>HERBLIQUEUR_1405</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Intake of herb liqueur [g/d]</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>LIQUEURS_1406</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Intake of liqueurs [g/d]</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>CONDIMENT_SAUCES_15</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Intake of seasoning, sauces and condiments [g/d]</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>SAUCES_1501</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Intake of savoury sauces [g/d]</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>TOMATOSAUCE_150101</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Intake of tomato-containing cooked sauces [g/d]</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>DRESSINGS_150102</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Dressing intake [g/d]</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>MAYONNAISE_150103</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Intake of mayonnaise [g/d]</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>HERBS_SPICES_1503</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Intakes of berbs, spices and similar [g/d]</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>CONDIMENTS_1504</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Condiments intake [g/d]</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>SOUP_BOUILLON_16</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Intake of soups and broths [g/d]</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>SOUP_1601</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Intake of soups [g/d]</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>BOUILLON_1602</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Intake of mixed vegetables soup, clear meat soup [g/d]</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS_17</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Intake of miscellaneous [g/d]</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>VEG_DISHES_1700</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Intake of vegetarian products and dishes [g/d]</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>SOY_PROD_1701</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Intake of soy products [g/d]</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>DIET_PROD_1702</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Intake of food for weight reduction [g/d]</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>ART_SWEETENER_170201</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Intake of artificial sweeteners (e.g., aspartam, saccharine) [g/d]</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
         <is>
           <t>decimal</t>
         </is>
